--- a/RF & Koerber UI Users.xlsx
+++ b/RF & Koerber UI Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jsainsbury-my.sharepoint.com/personal/deepika_geriga_sainsburys_co_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun.shukla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{5B97A9B2-8BD6-4209-926D-AEDFA1AD96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F927DF2-C7B7-44F7-9453-E72E64CFA2D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD1148E-F656-49FD-A6A7-86B1C5EDC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D78353F0-E54B-45E1-92FB-10AFC158E5C0}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +310,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +451,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -348,11 +648,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,15 +831,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F25646-1240-45DE-8364-E4EBC2B7A8BD}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,10 +1215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -741,7 +1240,7 @@
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1051,16 +1550,16 @@
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="7">
-        <v>456</v>
+      <c r="B42" s="24">
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="7">
-        <v>456</v>
+      <c r="B43" s="25">
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,71 +1567,71 @@
         <v>44</v>
       </c>
       <c r="B44" s="7">
-        <v>456</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7">
-        <v>456</v>
+      <c r="B45" s="19">
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
-        <v>456</v>
+      <c r="B46" s="20">
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="7">
-        <v>456</v>
+      <c r="B47" s="21">
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="7">
-        <v>456</v>
+      <c r="B48" s="22">
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="7">
-        <v>456</v>
+      <c r="B49" s="16">
+        <v>123456</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="7">
-        <v>456</v>
+      <c r="B50" s="23">
+        <v>789</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="7">
-        <v>456</v>
+      <c r="B51" s="17">
+        <v>123456</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="7">
-        <v>456</v>
+      <c r="B52" s="18">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -1160,10 +1659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
